--- a/upstage/src/main/resources/files/user.xlsx
+++ b/upstage/src/main/resources/files/user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new_post_project\shop\upstage\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98ECDAB4-5A3E-49BF-8C2C-E6CF5E3DF64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA75D5A-2D8C-4DB5-BE8C-066300BA0B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3264" yWindow="1956" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="1380" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>合肥天一生物技术研究所有限责任公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,20 +400,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.21875" customWidth="1"/>
     <col min="4" max="4" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="25.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -418,7 +423,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -432,16 +437,19 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
     </row>
   </sheetData>
